--- a/dataset/bulanan-ekspor-impor.xlsx
+++ b/dataset/bulanan-ekspor-impor.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\Python Master\Machine Learning Ops\POST TEST PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\Python Master\Machine Learning Ops\POST TEST PROJECT\pa-mlops\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB73A3F7-5192-45E8-86FF-C4B7FEEE6C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED15932-86B1-4BF7-859A-7BD49CF695FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{27C89D72-D54C-4561-87EB-02DD1E84CB56}"/>
   </bookViews>
   <sheets>
-    <sheet name="Monthly Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Monthly Summary" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -490,7 +490,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -533,13 +533,24 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -550,7 +561,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -588,6 +599,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{7698AB5B-E528-4522-92B6-430B014F20FE}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -903,904 +915,1942 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D08A2F1-7921-49D0-8B90-178847EB3B92}">
-  <dimension ref="A1:E52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893A40EA-CDCC-423E-9004-C21F39AF481B}">
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
+        <v>41640</v>
+      </c>
+      <c r="B2" s="2">
+        <v>14472289332</v>
+      </c>
+      <c r="C2" s="2">
+        <v>49154384703</v>
+      </c>
+      <c r="D2" s="2">
+        <v>14916227693</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11590996964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>41671</v>
+      </c>
+      <c r="B3" s="2">
+        <v>14634090390</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43416241019</v>
+      </c>
+      <c r="D3" s="2">
+        <v>13790661990</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10640029636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>41699</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15192634701</v>
+      </c>
+      <c r="C4" s="2">
+        <v>49294958689</v>
+      </c>
+      <c r="D4" s="2">
+        <v>14523719412</v>
+      </c>
+      <c r="E4" s="2">
+        <v>11439923450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>41730</v>
+      </c>
+      <c r="B5" s="2">
+        <v>14292472554</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45541731344</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16254976317</v>
+      </c>
+      <c r="E5" s="2">
+        <v>13005419405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>41760</v>
+      </c>
+      <c r="B6" s="2">
+        <v>14823602661</v>
+      </c>
+      <c r="C6" s="2">
+        <v>47417633575</v>
+      </c>
+      <c r="D6" s="2">
+        <v>14770336777</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12197088101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>41791</v>
+      </c>
+      <c r="B7" s="2">
+        <v>15409451765</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44989016798</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15697742441</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12811352690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>41821</v>
+      </c>
+      <c r="B8" s="2">
+        <v>14124129298</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43624537982</v>
+      </c>
+      <c r="D8" s="2">
+        <v>14081710235</v>
+      </c>
+      <c r="E8" s="2">
+        <v>11541376167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>41852</v>
+      </c>
+      <c r="B9" s="2">
+        <v>14481642319</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43484947226</v>
+      </c>
+      <c r="D9" s="2">
+        <v>14793236965</v>
+      </c>
+      <c r="E9" s="2">
+        <v>11676185855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>41883</v>
+      </c>
+      <c r="B10" s="2">
+        <v>15275846089</v>
+      </c>
+      <c r="C10" s="2">
+        <v>46043270707</v>
+      </c>
+      <c r="D10" s="2">
+        <v>15546096309</v>
+      </c>
+      <c r="E10" s="2">
+        <v>13158825424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>41913</v>
+      </c>
+      <c r="B11" s="2">
+        <v>15292759010</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43705129574</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15327994527</v>
+      </c>
+      <c r="E11" s="2">
+        <v>13184342220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>41944</v>
+      </c>
+      <c r="B12" s="2">
+        <v>13544729209</v>
+      </c>
+      <c r="C12" s="2">
+        <v>46182204245</v>
+      </c>
+      <c r="D12" s="2">
+        <v>14041608394</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12258277415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>41974</v>
+      </c>
+      <c r="B13" s="2">
+        <v>14436339660</v>
+      </c>
+      <c r="C13" s="2">
+        <v>46611395610</v>
+      </c>
+      <c r="D13" s="2">
+        <v>14434652028</v>
+      </c>
+      <c r="E13" s="2">
+        <v>14230519275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>42005</v>
+      </c>
+      <c r="B14" s="5">
+        <v>13244876797.530001</v>
+      </c>
+      <c r="C14" s="5">
+        <v>43443195035.040001</v>
+      </c>
+      <c r="D14" s="5">
+        <v>12612648838</v>
+      </c>
+      <c r="E14" s="5">
+        <v>11995411291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>42036</v>
+      </c>
+      <c r="B15" s="5">
+        <v>12172802862.67</v>
+      </c>
+      <c r="C15" s="5">
+        <v>39768342676.620003</v>
+      </c>
+      <c r="D15" s="5">
+        <v>11510111399</v>
+      </c>
+      <c r="E15" s="5">
+        <v>12134877571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>42064</v>
+      </c>
+      <c r="B16" s="5">
+        <v>13634041965.139999</v>
+      </c>
+      <c r="C16" s="5">
+        <v>48209231343.050003</v>
+      </c>
+      <c r="D16" s="5">
+        <v>12608691718</v>
+      </c>
+      <c r="E16" s="5">
+        <v>12815242585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>42095</v>
+      </c>
+      <c r="B17" s="5">
+        <v>13104596804.379999</v>
+      </c>
+      <c r="C17" s="5">
+        <v>44113167148.169998</v>
+      </c>
+      <c r="D17" s="5">
+        <v>12626278785</v>
+      </c>
+      <c r="E17" s="5">
+        <v>13205353501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>42125</v>
+      </c>
+      <c r="B18" s="5">
+        <v>12754659043.690001</v>
+      </c>
+      <c r="C18" s="5">
+        <v>41543644059.260002</v>
+      </c>
+      <c r="D18" s="5">
+        <v>11613585485</v>
+      </c>
+      <c r="E18" s="5">
+        <v>11452923855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>42156</v>
+      </c>
+      <c r="B19" s="5">
+        <v>13514101879.059999</v>
+      </c>
+      <c r="C19" s="5">
+        <v>40886554950.919998</v>
+      </c>
+      <c r="D19" s="5">
+        <v>12978091752</v>
+      </c>
+      <c r="E19" s="5">
+        <v>12789548820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>42186</v>
+      </c>
+      <c r="B20" s="5">
+        <v>11465779764.41</v>
+      </c>
+      <c r="C20" s="5">
+        <v>40908711754.629997</v>
+      </c>
+      <c r="D20" s="5">
+        <v>10081863504</v>
+      </c>
+      <c r="E20" s="5">
+        <v>9777959395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>42217</v>
+      </c>
+      <c r="B21" s="5">
+        <v>12726037506.73</v>
+      </c>
+      <c r="C21" s="5">
+        <v>41703962147.889999</v>
+      </c>
+      <c r="D21" s="5">
+        <v>12399248090</v>
+      </c>
+      <c r="E21" s="5">
+        <v>12392071524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>42248</v>
+      </c>
+      <c r="B22" s="5">
+        <v>12588359370.700001</v>
+      </c>
+      <c r="C22" s="5">
+        <v>41130727933.849998</v>
+      </c>
+      <c r="D22" s="5">
+        <v>11558601330</v>
+      </c>
+      <c r="E22" s="5">
+        <v>12517106390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>42278</v>
+      </c>
+      <c r="B23" s="5">
+        <v>12121740572.299999</v>
+      </c>
+      <c r="C23" s="5">
+        <v>43492324675.639999</v>
+      </c>
+      <c r="D23" s="5">
+        <v>11108916259</v>
+      </c>
+      <c r="E23" s="5">
+        <v>11725231343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>42309</v>
+      </c>
+      <c r="B24" s="5">
+        <v>11122182554.299999</v>
+      </c>
+      <c r="C24" s="5">
+        <v>41572222679.349998</v>
+      </c>
+      <c r="D24" s="5">
+        <v>11519468515</v>
+      </c>
+      <c r="E24" s="5">
+        <v>12396999154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B25" s="5">
+        <v>11917112381.719999</v>
+      </c>
+      <c r="C25" s="5">
+        <v>42889680221.370003</v>
+      </c>
+      <c r="D25" s="5">
+        <v>12077298548</v>
+      </c>
+      <c r="E25" s="5">
+        <v>13890623811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>42370</v>
+      </c>
+      <c r="B26" s="6">
+        <v>10581883837.98</v>
+      </c>
+      <c r="C26" s="6">
+        <v>39593480160.230003</v>
+      </c>
+      <c r="D26" s="6">
+        <v>10466995371</v>
+      </c>
+      <c r="E26" s="6">
+        <v>11170356250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>42401</v>
+      </c>
+      <c r="B27" s="6">
+        <v>11316734188.51</v>
+      </c>
+      <c r="C27" s="6">
+        <v>38699176125.860001</v>
+      </c>
+      <c r="D27" s="6">
+        <v>10175631438</v>
+      </c>
+      <c r="E27" s="6">
+        <v>12777162927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>42430</v>
+      </c>
+      <c r="B28" s="6">
+        <v>11812127477.93</v>
+      </c>
+      <c r="C28" s="6">
+        <v>43029049633.139999</v>
+      </c>
+      <c r="D28" s="6">
+        <v>11301709941</v>
+      </c>
+      <c r="E28" s="6">
+        <v>14280888506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>42461</v>
+      </c>
+      <c r="B29" s="6">
+        <v>11689745851.030001</v>
+      </c>
+      <c r="C29" s="6">
+        <v>39558381868.75</v>
+      </c>
+      <c r="D29" s="6">
+        <v>10813624836</v>
+      </c>
+      <c r="E29" s="6">
+        <v>12028222569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>42491</v>
+      </c>
+      <c r="B30" s="6">
+        <v>11517409125.879999</v>
+      </c>
+      <c r="C30" s="6">
+        <v>40622406240.970001</v>
+      </c>
+      <c r="D30" s="6">
+        <v>11140679613</v>
+      </c>
+      <c r="E30" s="6">
+        <v>13132879687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>42522</v>
+      </c>
+      <c r="B31" s="6">
+        <v>13206122765.219999</v>
+      </c>
+      <c r="C31" s="6">
+        <v>44766894584.669998</v>
+      </c>
+      <c r="D31" s="6">
+        <v>12095220496</v>
+      </c>
+      <c r="E31" s="6">
+        <v>13501715838</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>42552</v>
+      </c>
+      <c r="B32" s="6">
+        <v>9649503975.9699993</v>
+      </c>
+      <c r="C32" s="6">
+        <v>39032046988.709999</v>
+      </c>
+      <c r="D32" s="6">
+        <v>9017159102</v>
+      </c>
+      <c r="E32" s="6">
+        <v>10138881648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>42583</v>
+      </c>
+      <c r="B33" s="6">
+        <v>12753921321.129999</v>
+      </c>
+      <c r="C33" s="6">
+        <v>45800576791.739998</v>
+      </c>
+      <c r="D33" s="6">
+        <v>12385153588</v>
+      </c>
+      <c r="E33" s="6">
+        <v>14001735399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>42614</v>
+      </c>
+      <c r="B34" s="6">
+        <v>12579750249.950001</v>
+      </c>
+      <c r="C34" s="6">
+        <v>44146271670.660004</v>
+      </c>
+      <c r="D34" s="6">
+        <v>11297511237</v>
+      </c>
+      <c r="E34" s="6">
+        <v>12809168012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>42644</v>
+      </c>
+      <c r="B35" s="6">
+        <v>12743736883.73</v>
+      </c>
+      <c r="C35" s="6">
+        <v>47378384671.57</v>
+      </c>
+      <c r="D35" s="6">
+        <v>11507180543</v>
+      </c>
+      <c r="E35" s="6">
+        <v>12391159183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>42675</v>
+      </c>
+      <c r="B36" s="6">
+        <v>13502920382.690001</v>
+      </c>
+      <c r="C36" s="6">
+        <v>46606206087.949997</v>
+      </c>
+      <c r="D36" s="6">
+        <v>12669434720</v>
+      </c>
+      <c r="E36" s="6">
+        <v>12804703935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B37" s="6">
+        <v>13832355186.41</v>
+      </c>
+      <c r="C37" s="6">
+        <v>45551700747.949997</v>
+      </c>
+      <c r="D37" s="6">
+        <v>12782515616</v>
+      </c>
+      <c r="E37" s="6">
+        <v>12988497126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="7">
+        <v>13397676587.809999</v>
+      </c>
+      <c r="C38" s="7">
+        <v>43565989974.330002</v>
+      </c>
+      <c r="D38" s="7">
+        <v>11973765825</v>
+      </c>
+      <c r="E38" s="7">
+        <v>11677887405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>42767</v>
+      </c>
+      <c r="B39" s="7">
+        <v>12615980315.09</v>
+      </c>
+      <c r="C39" s="7">
+        <v>37467812722.18</v>
+      </c>
+      <c r="D39" s="7">
+        <v>11359410570</v>
+      </c>
+      <c r="E39" s="7">
+        <v>12640301805</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>42795</v>
+      </c>
+      <c r="B40" s="7">
+        <v>14718477686.879999</v>
+      </c>
+      <c r="C40" s="7">
+        <v>47776913741.860001</v>
+      </c>
+      <c r="D40" s="7">
+        <v>13283186576</v>
+      </c>
+      <c r="E40" s="7">
+        <v>13474016869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>42826</v>
+      </c>
+      <c r="B41" s="7">
+        <v>13269689617.58</v>
+      </c>
+      <c r="C41" s="7">
+        <v>44248565280.559998</v>
+      </c>
+      <c r="D41" s="7">
+        <v>11950612898</v>
+      </c>
+      <c r="E41" s="7">
+        <v>12432054822</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>42856</v>
+      </c>
+      <c r="B42" s="7">
+        <v>14333859523.549999</v>
+      </c>
+      <c r="C42" s="7">
+        <v>44049700226.860001</v>
+      </c>
+      <c r="D42" s="7">
+        <v>13772553263</v>
+      </c>
+      <c r="E42" s="7">
+        <v>14996662995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>42887</v>
+      </c>
+      <c r="B43" s="7">
+        <v>11661376380.860001</v>
+      </c>
+      <c r="C43" s="7">
+        <v>39899123547.300003</v>
+      </c>
+      <c r="D43" s="7">
+        <v>9991567566</v>
+      </c>
+      <c r="E43" s="7">
+        <v>11067266662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>42917</v>
+      </c>
+      <c r="B44" s="7">
+        <v>13611062499.27</v>
+      </c>
+      <c r="C44" s="7">
+        <v>45104086462.25</v>
+      </c>
+      <c r="D44" s="7">
+        <v>13889809439</v>
+      </c>
+      <c r="E44" s="7">
+        <v>13474009387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>42948</v>
+      </c>
+      <c r="B45" s="7">
+        <v>15187990996.889999</v>
+      </c>
+      <c r="C45" s="7">
+        <v>47603859326.860001</v>
+      </c>
+      <c r="D45" s="7">
+        <v>13509196595</v>
+      </c>
+      <c r="E45" s="7">
+        <v>14290326822</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>42979</v>
+      </c>
+      <c r="B46" s="7">
+        <v>14580216111.799999</v>
+      </c>
+      <c r="C46" s="7">
+        <v>48289451395.639999</v>
+      </c>
+      <c r="D46" s="7">
+        <v>12788291967</v>
+      </c>
+      <c r="E46" s="7">
+        <v>13017265351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>43009</v>
+      </c>
+      <c r="B47" s="7">
+        <v>15252563526.059999</v>
+      </c>
+      <c r="C47" s="7">
+        <v>50820828191.650002</v>
+      </c>
+      <c r="D47" s="7">
+        <v>14249179382</v>
+      </c>
+      <c r="E47" s="7">
+        <v>14703970178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43040</v>
+      </c>
+      <c r="B48" s="7">
+        <v>15334735600.610001</v>
+      </c>
+      <c r="C48" s="7">
+        <v>47905955325.269997</v>
+      </c>
+      <c r="D48" s="7">
+        <v>15113523078</v>
+      </c>
+      <c r="E48" s="7">
+        <v>14557794980</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>43070</v>
+      </c>
+      <c r="B49" s="7">
+        <v>14864547089.620001</v>
+      </c>
+      <c r="C49" s="7">
+        <v>49114346862.32</v>
+      </c>
+      <c r="D49" s="7">
+        <v>15104466563</v>
+      </c>
+      <c r="E49" s="7">
+        <v>14417729365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>43101</v>
+      </c>
+      <c r="B50" s="8">
+        <v>14576277325.780001</v>
+      </c>
+      <c r="C50" s="8">
+        <v>48207188456.410004</v>
+      </c>
+      <c r="D50" s="8">
+        <v>15309429258</v>
+      </c>
+      <c r="E50" s="8">
+        <v>13227092240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>43132</v>
+      </c>
+      <c r="B51" s="8">
+        <v>14132382055.93</v>
+      </c>
+      <c r="C51" s="8">
+        <v>46035282233.809998</v>
+      </c>
+      <c r="D51" s="8">
+        <v>14185493772</v>
+      </c>
+      <c r="E51" s="8">
+        <v>13779364997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>43160</v>
+      </c>
+      <c r="B52" s="8">
+        <v>15510616703.18</v>
+      </c>
+      <c r="C52" s="8">
+        <v>52078259569.93</v>
+      </c>
+      <c r="D52" s="8">
+        <v>14463601047</v>
+      </c>
+      <c r="E52" s="8">
+        <v>12979524178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>43191</v>
+      </c>
+      <c r="B53" s="8">
+        <v>14496238057.469999</v>
+      </c>
+      <c r="C53" s="8">
+        <v>47386767306.400002</v>
+      </c>
+      <c r="D53" s="8">
+        <v>16162289358</v>
+      </c>
+      <c r="E53" s="8">
+        <v>14804211163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>43221</v>
+      </c>
+      <c r="B54" s="8">
+        <v>16198340826.26</v>
+      </c>
+      <c r="C54" s="8">
+        <v>51577563772.480003</v>
+      </c>
+      <c r="D54" s="8">
+        <v>17662888974</v>
+      </c>
+      <c r="E54" s="8">
+        <v>16444214204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>43252</v>
+      </c>
+      <c r="B55" s="8">
+        <v>12941739831.719999</v>
+      </c>
+      <c r="C55" s="8">
+        <v>49522181747.150002</v>
+      </c>
+      <c r="D55" s="8">
+        <v>11267885237</v>
+      </c>
+      <c r="E55" s="8">
+        <v>10277766719</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>43282</v>
+      </c>
+      <c r="B56" s="8">
+        <v>16284719992.309999</v>
+      </c>
+      <c r="C56" s="8">
+        <v>54441268184.18</v>
+      </c>
+      <c r="D56" s="8">
+        <v>18297145166</v>
+      </c>
+      <c r="E56" s="8">
+        <v>15532866751</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>43313</v>
+      </c>
+      <c r="B57" s="8">
+        <v>15865124056.42</v>
+      </c>
+      <c r="C57" s="8">
+        <v>48619406722.599998</v>
+      </c>
+      <c r="D57" s="8">
+        <v>16818139736.370001</v>
+      </c>
+      <c r="E57" s="8">
+        <v>15554819747</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>43344</v>
+      </c>
+      <c r="B58" s="8">
+        <v>14956348234.23</v>
+      </c>
+      <c r="C58" s="8">
+        <v>50393032873.860001</v>
+      </c>
+      <c r="D58" s="8">
+        <v>14610057878</v>
+      </c>
+      <c r="E58" s="8">
+        <v>12860756790</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>43374</v>
+      </c>
+      <c r="B59" s="8">
+        <v>15909072846.280001</v>
+      </c>
+      <c r="C59" s="8">
+        <v>56706511181.5</v>
+      </c>
+      <c r="D59" s="8">
+        <v>17667618898</v>
+      </c>
+      <c r="E59" s="8">
+        <v>15923155505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>43405</v>
+      </c>
+      <c r="B60" s="8">
+        <v>14851720862.219999</v>
+      </c>
+      <c r="C60" s="8">
+        <v>51141321156.800003</v>
+      </c>
+      <c r="D60" s="8">
+        <v>16901814777</v>
+      </c>
+      <c r="E60" s="8">
+        <v>15618755159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>43435</v>
+      </c>
+      <c r="B61" s="8">
+        <v>14290093210.17</v>
+      </c>
+      <c r="C61" s="8">
+        <v>52798736010.760002</v>
+      </c>
+      <c r="D61" s="8">
+        <v>15364986090</v>
+      </c>
+      <c r="E61" s="8">
+        <v>14716898033</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>43466</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B62" s="2">
         <v>14028086397.26</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C62" s="2">
         <v>55153741678.029999</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D62" s="2">
         <v>15005191440</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E62" s="2">
         <v>13892230800</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>43497</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B63" s="2">
         <v>12788557131.66</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C63" s="2">
         <v>48714544728.769997</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D63" s="2">
         <v>12465073944</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E63" s="2">
         <v>12538456210</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>43525</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B64" s="2">
         <v>14447789013.35</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C64" s="2">
         <v>57526309273.949997</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D64" s="2">
         <v>13746621857</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E64" s="2">
         <v>13125266829</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>43556</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B65" s="2">
         <v>13068068332.92</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C65" s="2">
         <v>52365329749.239998</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D65" s="2">
         <v>15399185930</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E65" s="2">
         <v>14143962559</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>43586</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B66" s="2">
         <v>14751890717.709999</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C66" s="2">
         <v>57680016607.910004</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D66" s="2">
         <v>14606659275</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E66" s="2">
         <v>14766069634</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>43617</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B67" s="2">
         <v>11763353136.51</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C67" s="2">
         <v>46497604256.660004</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D67" s="2">
         <v>11495388062</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E67" s="2">
         <v>10254928550</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>43647</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B68" s="2">
         <v>15238418109.040001</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C68" s="2">
         <v>56408079593.650002</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D68" s="2">
         <v>15518475622</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E68" s="2">
         <v>13609908017</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>43678</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B69" s="2">
         <v>14261962733.889999</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C69" s="2">
         <v>52385275556.18</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D69" s="2">
         <v>14169350761</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E69" s="2">
         <v>12679655746</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>43709</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B70" s="2">
         <v>14080108446.190001</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C70" s="2">
         <v>54588169197.790001</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D70" s="2">
         <v>14263448876</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E70" s="2">
         <v>13506445659</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>43739</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B71" s="2">
         <v>14881456853.91</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C71" s="2">
         <v>61412977961.989998</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D71" s="2">
         <v>14759081430</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E71" s="2">
         <v>13605297569</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>43770</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B72" s="2">
         <v>13944486956.68</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C72" s="2">
         <v>56022187369.800003</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D72" s="2">
         <v>15340475284</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E72" s="2">
         <v>16222862032</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>43800</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B73" s="2">
         <v>14428818305.1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C73" s="2">
         <v>55720138557.139999</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D73" s="2">
         <v>14506784516</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E73" s="2">
         <v>14283648453</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>43831</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B74" s="2">
         <v>13636412653.620001</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C74" s="2">
         <v>50900144920.199997</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D74" s="2">
         <v>14268720284</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E74" s="2">
         <v>12141682743</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>43862</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B75" s="2">
         <v>14042089243.23</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C75" s="2">
         <v>49671209459.93</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D75" s="2">
         <v>11548100132</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E75" s="2">
         <v>13059584031</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>43891</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B76" s="2">
         <v>14031292077.889999</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C76" s="2">
         <v>54068776030.330002</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D76" s="2">
         <v>13352176374</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E76" s="2">
         <v>14432183255</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>43922</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B77" s="2">
         <v>12159824545.01</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C77" s="2">
         <v>45172672643.650002</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D77" s="2">
         <v>12535233221</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E77" s="2">
         <v>15051046827</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>43952</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B78" s="2">
         <v>10452625424.790001</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C78" s="2">
         <v>42236217598.43</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D78" s="2">
         <v>8438627383</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E78" s="2">
         <v>10084426066</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>43983</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B79" s="2">
         <v>12006813612.700001</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C79" s="2">
         <v>46387784702.639999</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D79" s="2">
         <v>10760317981</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E79" s="2">
         <v>11505323617</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>44013</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B80" s="2">
         <v>13689902558.809999</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C80" s="2">
         <v>46069923524.57</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D80" s="2">
         <v>10464299676</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E80" s="2">
         <v>11323464029</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>44044</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B81" s="2">
         <v>13055281120.709999</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C81" s="2">
         <v>43565183268.239998</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D81" s="2">
         <v>10742407847</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E81" s="2">
         <v>11839690849</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>44075</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B82" s="2">
         <v>13956176571.879999</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C82" s="2">
         <v>43933093550.32</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D82" s="2">
         <v>11570104770</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E82" s="2">
         <v>12883228618</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>44105</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B83" s="2">
         <v>14363443251.43</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C83" s="2">
         <v>47117842845.639999</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D83" s="2">
         <v>10786016684</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E83" s="2">
         <v>12091546513</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>44136</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B84" s="2">
         <v>15258422043.1</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C84" s="2">
         <v>53282636840.900002</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D84" s="2">
         <v>12664414194</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E84" s="2">
         <v>12137149554</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>44166</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B85" s="2">
         <v>16539555059.629999</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C85" s="2">
         <v>57272738271.5</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D85" s="2">
         <v>14438376084</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E85" s="2">
         <v>15330669376</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>44197</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B86" s="2">
         <v>15300168401.83</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C86" s="2">
         <v>52594533333.099998</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D86" s="2">
         <v>13329901020</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E86" s="2">
         <v>13078332805</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>44228</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B87" s="2">
         <v>15255398398.450001</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C87" s="2">
         <v>47636989300.889999</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D87" s="2">
         <v>13264974634</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E87" s="2">
         <v>12378562385</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>44256</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B88" s="2">
         <v>18398414762.130001</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C88" s="2">
         <v>50524633458.959999</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D88" s="2">
         <v>16787511490</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E88" s="2">
         <v>17281282068</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>44287</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B89" s="2">
         <v>18474131706.880001</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C89" s="2">
         <v>49061313898.620003</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D89" s="2">
         <v>16204338764</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E89" s="2">
         <v>15359269116</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>44317</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B90" s="2">
         <v>16908015508.43</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C90" s="2">
         <v>51750618405.050003</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D90" s="2">
         <v>14234815276</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E90" s="2">
         <v>14618029219</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>44348</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B91" s="2">
         <v>18547744863.509998</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C91" s="2">
         <v>52712714180.449997</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D91" s="2">
         <v>17218457483</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E91" s="2">
         <v>15690996581</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>44378</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B92" s="2">
         <v>19369596670.950001</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C92" s="2">
         <v>55266605966.050003</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D92" s="2">
         <v>15263122650</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E92" s="2">
         <v>13883775439</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>44409</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B93" s="2">
         <v>21443151840.860001</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C93" s="2">
         <v>54495451463.730003</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D93" s="2">
         <v>16678886850</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E93" s="2">
         <v>14120443591</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>44440</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B94" s="2">
         <v>20618788618.099998</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C94" s="2">
         <v>50900622540.110001</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D94" s="2">
         <v>16234148586</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E94" s="2">
         <v>14418830339</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>44470</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B95" s="2">
         <v>22090984014.330002</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C95" s="2">
         <v>56525781312.650002</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D95" s="2">
         <v>16293616090</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E95" s="2">
         <v>14353729490</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>44501</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B96" s="2">
         <v>22845364125.290001</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C96" s="2">
         <v>50280024693.199997</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D96" s="2">
         <v>19328188076</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E96" s="2">
         <v>15208908997</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>44531</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B97" s="2">
         <v>22357720667.68</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C97" s="2">
         <v>49918547181.809998</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D97" s="2">
         <v>21352018156</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E97" s="2">
         <v>17367172373</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>44562</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B98" s="2">
         <v>19173699043.360001</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C98" s="2">
         <v>27176531455.73</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D98" s="2">
         <v>18211103488</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E98" s="2">
         <v>12525388397</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>44593</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B99" s="2">
         <v>20472894279.18</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C99" s="2">
         <v>44630366469.309998</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D99" s="2">
         <v>16638511813</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E99" s="2">
         <v>13643754535</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>44621</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B100" s="2">
         <v>26497477726.130001</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C100" s="2">
         <v>61009058930.599998</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D100" s="2">
         <v>21962417654</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E100" s="2">
         <v>17890856389</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>44652</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B101" s="2">
         <v>27322284675.599998</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C101" s="2">
         <v>55744554534.32</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D101" s="2">
         <v>19757449353</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E101" s="2">
         <v>15311997567</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>44682</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B102" s="2">
         <v>21509825822.049999</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C102" s="2">
         <v>51078811698.32</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D102" s="2">
         <v>18609287096</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E102" s="2">
         <v>13695896141</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>44713</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B103" s="2">
         <v>26150115171.990002</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C103" s="2">
         <v>55379269969.519997</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D103" s="2">
         <v>21003853585</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E103" s="2">
         <v>15849221401</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>44743</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B104" s="2">
         <v>25563196494.360001</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C104" s="2">
         <v>58873597980.57</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D104" s="2">
         <v>21345030399</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E104" s="2">
         <v>15106273518</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>44774</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B105" s="2">
         <v>27862094370.639999</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C105" s="2">
         <v>59542590396.239998</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D105" s="2">
         <v>22150549517</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E105" s="2">
         <v>16324740238</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>44805</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B106" s="2">
         <v>24777175554.389999</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C106" s="2">
         <v>60995692131.599998</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D106" s="2">
         <v>19808344348</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E106" s="2">
         <v>15373240605</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>44835</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B107" s="2">
         <v>24728444384.48</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C107" s="2">
         <v>60949225784.489998</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D107" s="2">
         <v>19135352916</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E107" s="2">
         <v>15085178245</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>44866</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B108" s="2">
         <v>24094037088.310001</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C108" s="2">
         <v>57159651753.169998</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D108" s="2">
         <v>18962094932</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E108" s="2">
         <v>14983782996</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>44896</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B109" s="2">
         <v>23827858043.970001</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C109" s="2">
         <v>54788095309.510002</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D109" s="2">
         <v>19863061497</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E109" s="2">
         <v>17445166404</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>44927</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B110" s="2">
         <v>22323843853.75</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C110" s="2">
         <v>51412618343.169998</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D110" s="2">
         <v>18442933629</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E110" s="2">
         <v>15297835516</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>44958</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B111" s="2">
         <v>21321275494.98</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C111" s="2">
         <v>53154842440.690002</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D111" s="2">
         <v>15919168182</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E111" s="2">
         <v>13357927312</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>44986</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B112" s="2">
         <v>23415993725.52</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C112" s="2">
         <v>63960402421.099998</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D112" s="2">
         <v>20588052914</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E112" s="2">
         <v>17338475865</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>45017</v>
+      </c>
+      <c r="B113" s="9">
+        <v>19284075116.77</v>
+      </c>
+      <c r="C113" s="9">
+        <v>56188259181.059998</v>
+      </c>
+      <c r="D113" s="9">
+        <v>15347610308</v>
+      </c>
+      <c r="E113" s="9">
+        <v>13898787066</v>
       </c>
     </row>
   </sheetData>
